--- a/Experimentation/Solutionshillclimber.csv.xlsx
+++ b/Experimentation/Solutionshillclimber.csv.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="15">
   <si>
     <t>Wijk_no</t>
   </si>
@@ -55,6 +54,21 @@
   </si>
   <si>
     <t>n,2,n,n,s,x,y,y,23000</t>
+  </si>
+  <si>
+    <t>n,1,n,n,s,x,y,y,23000</t>
+  </si>
+  <si>
+    <t>n,3,n,n,s,x,y,y,23000</t>
+  </si>
+  <si>
+    <t>n,3,n,n,s,y,x,y,23000</t>
+  </si>
+  <si>
+    <t>n,2,n,n,s,y,x,y,23000</t>
+  </si>
+  <si>
+    <t>n,1,n,n,s,y,x,y,23000</t>
   </si>
 </sst>
 </file>
@@ -406,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F121"/>
+  <dimension ref="A1:F271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="F152" sqref="F152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2070,6 +2084,9 @@
       <c r="D92">
         <v>4822</v>
       </c>
+      <c r="E92">
+        <v>3680</v>
+      </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
@@ -2085,6 +2102,9 @@
       <c r="D93">
         <v>4822</v>
       </c>
+      <c r="E93">
+        <v>3742</v>
+      </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
@@ -2100,6 +2120,9 @@
       <c r="D94">
         <v>4822</v>
       </c>
+      <c r="E94">
+        <v>4368</v>
+      </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
@@ -2114,6 +2137,9 @@
       </c>
       <c r="D95">
         <v>4822</v>
+      </c>
+      <c r="E95">
+        <v>3872</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -2130,8 +2156,11 @@
       <c r="D96">
         <v>4822</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E96">
+        <v>3944</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>2</v>
       </c>
@@ -2145,8 +2174,11 @@
       <c r="D97">
         <v>4822</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E97">
+        <v>4298</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>2</v>
       </c>
@@ -2160,8 +2192,11 @@
       <c r="D98">
         <v>4822</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E98">
+        <v>4302</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>2</v>
       </c>
@@ -2175,8 +2210,11 @@
       <c r="D99">
         <v>4822</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E99">
+        <v>4314</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>2</v>
       </c>
@@ -2190,8 +2228,11 @@
       <c r="D100">
         <v>4822</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E100">
+        <v>3966</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>2</v>
       </c>
@@ -2205,8 +2246,11 @@
       <c r="D101">
         <v>4822</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E101">
+        <v>4424</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>2</v>
       </c>
@@ -2220,8 +2264,11 @@
       <c r="D102">
         <v>4822</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E102">
+        <v>4442</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>2</v>
       </c>
@@ -2235,8 +2282,11 @@
       <c r="D103">
         <v>4822</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E103">
+        <v>3794</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>2</v>
       </c>
@@ -2250,8 +2300,11 @@
       <c r="D104">
         <v>4822</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E104">
+        <v>4240</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>2</v>
       </c>
@@ -2265,8 +2318,11 @@
       <c r="D105">
         <v>4822</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E105">
+        <v>3154</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>2</v>
       </c>
@@ -2280,8 +2336,11 @@
       <c r="D106">
         <v>4822</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E106">
+        <v>4554</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>2</v>
       </c>
@@ -2295,8 +2354,11 @@
       <c r="D107">
         <v>4822</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E107">
+        <v>3818</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>2</v>
       </c>
@@ -2310,8 +2372,11 @@
       <c r="D108">
         <v>4822</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E108">
+        <v>3952</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>2</v>
       </c>
@@ -2325,8 +2390,11 @@
       <c r="D109">
         <v>4822</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E109">
+        <v>4356</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>2</v>
       </c>
@@ -2340,8 +2408,11 @@
       <c r="D110">
         <v>4822</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E110">
+        <v>4210</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>2</v>
       </c>
@@ -2355,8 +2426,11 @@
       <c r="D111">
         <v>4822</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E111">
+        <v>4476</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>2</v>
       </c>
@@ -2370,8 +2444,11 @@
       <c r="D112">
         <v>4822</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E112">
+        <v>4460</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>2</v>
       </c>
@@ -2385,8 +2462,11 @@
       <c r="D113">
         <v>4822</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E113">
+        <v>4034</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>2</v>
       </c>
@@ -2400,8 +2480,11 @@
       <c r="D114">
         <v>4822</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E114">
+        <v>3946</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>2</v>
       </c>
@@ -2415,8 +2498,11 @@
       <c r="D115">
         <v>4822</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E115">
+        <v>4348</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>2</v>
       </c>
@@ -2430,8 +2516,11 @@
       <c r="D116">
         <v>4822</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E116">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>2</v>
       </c>
@@ -2445,8 +2534,14 @@
       <c r="D117">
         <v>4822</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E117">
+        <v>2390</v>
+      </c>
+      <c r="F117" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>2</v>
       </c>
@@ -2460,8 +2555,11 @@
       <c r="D118">
         <v>4822</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E118">
+        <v>3554</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>2</v>
       </c>
@@ -2475,8 +2573,11 @@
       <c r="D119">
         <v>4822</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E119">
+        <v>4766</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>2</v>
       </c>
@@ -2490,8 +2591,11 @@
       <c r="D120">
         <v>4822</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E120">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>2</v>
       </c>
@@ -2504,6 +2608,2716 @@
       </c>
       <c r="D121">
         <v>4822</v>
+      </c>
+      <c r="E121">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>1</v>
+      </c>
+      <c r="B122" t="s">
+        <v>10</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>6216</v>
+      </c>
+      <c r="E122">
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>1</v>
+      </c>
+      <c r="B123" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123">
+        <f>C122+1</f>
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>6216</v>
+      </c>
+      <c r="E123">
+        <v>4272</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>1</v>
+      </c>
+      <c r="B124" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124">
+        <f t="shared" ref="C124:C151" si="4">C123+1</f>
+        <v>2</v>
+      </c>
+      <c r="D124">
+        <v>6216</v>
+      </c>
+      <c r="E124">
+        <v>3664</v>
+      </c>
+      <c r="F124" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>1</v>
+      </c>
+      <c r="B125" t="s">
+        <v>10</v>
+      </c>
+      <c r="C125">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D125">
+        <v>6216</v>
+      </c>
+      <c r="E125">
+        <v>4740</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>1</v>
+      </c>
+      <c r="B126" t="s">
+        <v>10</v>
+      </c>
+      <c r="C126">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="D126">
+        <v>6216</v>
+      </c>
+      <c r="E126">
+        <v>5894</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>1</v>
+      </c>
+      <c r="B127" t="s">
+        <v>10</v>
+      </c>
+      <c r="C127">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="D127">
+        <v>6216</v>
+      </c>
+      <c r="E127">
+        <v>6084</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>1</v>
+      </c>
+      <c r="B128" t="s">
+        <v>10</v>
+      </c>
+      <c r="C128">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="D128">
+        <v>6216</v>
+      </c>
+      <c r="E128">
+        <v>5524</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>1</v>
+      </c>
+      <c r="B129" t="s">
+        <v>10</v>
+      </c>
+      <c r="C129">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="D129">
+        <v>6216</v>
+      </c>
+      <c r="E129">
+        <v>6108</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>1</v>
+      </c>
+      <c r="B130" t="s">
+        <v>10</v>
+      </c>
+      <c r="C130">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="D130">
+        <v>6216</v>
+      </c>
+      <c r="E130">
+        <v>5764</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>1</v>
+      </c>
+      <c r="B131" t="s">
+        <v>10</v>
+      </c>
+      <c r="C131">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="D131">
+        <v>6216</v>
+      </c>
+      <c r="E131">
+        <v>6092</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>1</v>
+      </c>
+      <c r="B132" t="s">
+        <v>10</v>
+      </c>
+      <c r="C132">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="D132">
+        <v>6216</v>
+      </c>
+      <c r="E132">
+        <v>5206</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>1</v>
+      </c>
+      <c r="B133" t="s">
+        <v>10</v>
+      </c>
+      <c r="C133">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="D133">
+        <v>6216</v>
+      </c>
+      <c r="E133">
+        <v>4374</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>1</v>
+      </c>
+      <c r="B134" t="s">
+        <v>10</v>
+      </c>
+      <c r="C134">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="D134">
+        <v>6216</v>
+      </c>
+      <c r="E134">
+        <v>6138</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>1</v>
+      </c>
+      <c r="B135" t="s">
+        <v>10</v>
+      </c>
+      <c r="C135">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="D135">
+        <v>6216</v>
+      </c>
+      <c r="E135">
+        <v>5426</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>1</v>
+      </c>
+      <c r="B136" t="s">
+        <v>10</v>
+      </c>
+      <c r="C136">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="D136">
+        <v>6216</v>
+      </c>
+      <c r="E136">
+        <v>6092</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>1</v>
+      </c>
+      <c r="B137" t="s">
+        <v>10</v>
+      </c>
+      <c r="C137">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="D137">
+        <v>6216</v>
+      </c>
+      <c r="E137">
+        <v>5518</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>1</v>
+      </c>
+      <c r="B138" t="s">
+        <v>10</v>
+      </c>
+      <c r="C138">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="D138">
+        <v>6216</v>
+      </c>
+      <c r="E138">
+        <v>4994</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>1</v>
+      </c>
+      <c r="B139" t="s">
+        <v>10</v>
+      </c>
+      <c r="C139">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="D139">
+        <v>6216</v>
+      </c>
+      <c r="E139">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>1</v>
+      </c>
+      <c r="B140" t="s">
+        <v>10</v>
+      </c>
+      <c r="C140">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="D140">
+        <v>6216</v>
+      </c>
+      <c r="E140">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>1</v>
+      </c>
+      <c r="B141" t="s">
+        <v>10</v>
+      </c>
+      <c r="C141">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="D141">
+        <v>6216</v>
+      </c>
+      <c r="E141">
+        <v>5430</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>1</v>
+      </c>
+      <c r="B142" t="s">
+        <v>10</v>
+      </c>
+      <c r="C142">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="D142">
+        <v>6216</v>
+      </c>
+      <c r="E142">
+        <v>5672</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>1</v>
+      </c>
+      <c r="B143" t="s">
+        <v>10</v>
+      </c>
+      <c r="C143">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="D143">
+        <v>6216</v>
+      </c>
+      <c r="E143">
+        <v>4282</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>1</v>
+      </c>
+      <c r="B144" t="s">
+        <v>10</v>
+      </c>
+      <c r="C144">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="D144">
+        <v>6216</v>
+      </c>
+      <c r="E144">
+        <v>4818</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>1</v>
+      </c>
+      <c r="B145" t="s">
+        <v>10</v>
+      </c>
+      <c r="C145">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="D145">
+        <v>6216</v>
+      </c>
+      <c r="E145">
+        <v>5948</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>1</v>
+      </c>
+      <c r="B146" t="s">
+        <v>10</v>
+      </c>
+      <c r="C146">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="D146">
+        <v>6216</v>
+      </c>
+      <c r="E146">
+        <v>6132</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>1</v>
+      </c>
+      <c r="B147" t="s">
+        <v>10</v>
+      </c>
+      <c r="C147">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="D147">
+        <v>6216</v>
+      </c>
+      <c r="E147">
+        <v>5576</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>1</v>
+      </c>
+      <c r="B148" t="s">
+        <v>10</v>
+      </c>
+      <c r="C148">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="D148">
+        <v>6216</v>
+      </c>
+      <c r="E148">
+        <v>6088</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>1</v>
+      </c>
+      <c r="B149" t="s">
+        <v>10</v>
+      </c>
+      <c r="C149">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="D149">
+        <v>6216</v>
+      </c>
+      <c r="E149">
+        <v>5532</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>1</v>
+      </c>
+      <c r="B150" t="s">
+        <v>10</v>
+      </c>
+      <c r="C150">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="D150">
+        <v>6216</v>
+      </c>
+      <c r="E150">
+        <v>5754</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>1</v>
+      </c>
+      <c r="B151" t="s">
+        <v>10</v>
+      </c>
+      <c r="C151">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="D151">
+        <v>6216</v>
+      </c>
+      <c r="E151">
+        <v>4948</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>3</v>
+      </c>
+      <c r="B152" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>5832</v>
+      </c>
+      <c r="E152">
+        <v>5152</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>3</v>
+      </c>
+      <c r="B153" t="s">
+        <v>11</v>
+      </c>
+      <c r="C153">
+        <f>C152+1</f>
+        <v>1</v>
+      </c>
+      <c r="D153">
+        <v>5832</v>
+      </c>
+      <c r="E153">
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>3</v>
+      </c>
+      <c r="B154" t="s">
+        <v>11</v>
+      </c>
+      <c r="C154">
+        <f t="shared" ref="C154:C181" si="5">C153+1</f>
+        <v>2</v>
+      </c>
+      <c r="D154">
+        <v>5832</v>
+      </c>
+      <c r="E154">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>3</v>
+      </c>
+      <c r="B155" t="s">
+        <v>11</v>
+      </c>
+      <c r="C155">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="D155">
+        <v>5832</v>
+      </c>
+      <c r="E155">
+        <v>3802</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>3</v>
+      </c>
+      <c r="B156" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="D156">
+        <v>5832</v>
+      </c>
+      <c r="E156">
+        <v>2736</v>
+      </c>
+      <c r="F156" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>3</v>
+      </c>
+      <c r="B157" t="s">
+        <v>11</v>
+      </c>
+      <c r="C157">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="D157">
+        <v>5832</v>
+      </c>
+      <c r="E157">
+        <v>4924</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>3</v>
+      </c>
+      <c r="B158" t="s">
+        <v>11</v>
+      </c>
+      <c r="C158">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="D158">
+        <v>5832</v>
+      </c>
+      <c r="E158">
+        <v>4414</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>3</v>
+      </c>
+      <c r="B159" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="D159">
+        <v>5832</v>
+      </c>
+      <c r="E159">
+        <v>4486</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>3</v>
+      </c>
+      <c r="B160" t="s">
+        <v>11</v>
+      </c>
+      <c r="C160">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="D160">
+        <v>5832</v>
+      </c>
+      <c r="E160">
+        <v>5092</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>3</v>
+      </c>
+      <c r="B161" t="s">
+        <v>11</v>
+      </c>
+      <c r="C161">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="D161">
+        <v>5832</v>
+      </c>
+      <c r="E161">
+        <v>5012</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>3</v>
+      </c>
+      <c r="B162" t="s">
+        <v>11</v>
+      </c>
+      <c r="C162">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="D162">
+        <v>5832</v>
+      </c>
+      <c r="E162">
+        <v>5148</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>3</v>
+      </c>
+      <c r="B163" t="s">
+        <v>11</v>
+      </c>
+      <c r="C163">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="D163">
+        <v>5832</v>
+      </c>
+      <c r="E163">
+        <v>4596</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>3</v>
+      </c>
+      <c r="B164" t="s">
+        <v>11</v>
+      </c>
+      <c r="C164">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="D164">
+        <v>5832</v>
+      </c>
+      <c r="E164">
+        <v>4412</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>3</v>
+      </c>
+      <c r="B165" t="s">
+        <v>11</v>
+      </c>
+      <c r="C165">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="D165">
+        <v>5832</v>
+      </c>
+      <c r="E165">
+        <v>5396</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>3</v>
+      </c>
+      <c r="B166" t="s">
+        <v>11</v>
+      </c>
+      <c r="C166">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="D166">
+        <v>5832</v>
+      </c>
+      <c r="E166">
+        <v>5150</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>3</v>
+      </c>
+      <c r="B167" t="s">
+        <v>11</v>
+      </c>
+      <c r="C167">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="D167">
+        <v>5832</v>
+      </c>
+      <c r="E167">
+        <v>4496</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>3</v>
+      </c>
+      <c r="B168" t="s">
+        <v>11</v>
+      </c>
+      <c r="C168">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="D168">
+        <v>5832</v>
+      </c>
+      <c r="E168">
+        <v>5084</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>3</v>
+      </c>
+      <c r="B169" t="s">
+        <v>11</v>
+      </c>
+      <c r="C169">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="D169">
+        <v>5832</v>
+      </c>
+      <c r="E169">
+        <v>3638</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>3</v>
+      </c>
+      <c r="B170" t="s">
+        <v>11</v>
+      </c>
+      <c r="C170">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="D170">
+        <v>5832</v>
+      </c>
+      <c r="E170">
+        <v>3152</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>3</v>
+      </c>
+      <c r="B171" t="s">
+        <v>11</v>
+      </c>
+      <c r="C171">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="D171">
+        <v>5832</v>
+      </c>
+      <c r="E171">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>3</v>
+      </c>
+      <c r="B172" t="s">
+        <v>11</v>
+      </c>
+      <c r="C172">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="D172">
+        <v>5832</v>
+      </c>
+      <c r="E172">
+        <v>5518</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>3</v>
+      </c>
+      <c r="B173" t="s">
+        <v>11</v>
+      </c>
+      <c r="C173">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="D173">
+        <v>5832</v>
+      </c>
+      <c r="E173">
+        <v>5732</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>3</v>
+      </c>
+      <c r="B174" t="s">
+        <v>11</v>
+      </c>
+      <c r="C174">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="D174">
+        <v>5832</v>
+      </c>
+      <c r="E174">
+        <v>4736</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>3</v>
+      </c>
+      <c r="B175" t="s">
+        <v>11</v>
+      </c>
+      <c r="C175">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="D175">
+        <v>5832</v>
+      </c>
+      <c r="E175">
+        <v>5334</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>3</v>
+      </c>
+      <c r="B176" t="s">
+        <v>11</v>
+      </c>
+      <c r="C176">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="D176">
+        <v>5832</v>
+      </c>
+      <c r="E176">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>3</v>
+      </c>
+      <c r="B177" t="s">
+        <v>11</v>
+      </c>
+      <c r="C177">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="D177">
+        <v>5832</v>
+      </c>
+      <c r="E177">
+        <v>5322</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>3</v>
+      </c>
+      <c r="B178" t="s">
+        <v>11</v>
+      </c>
+      <c r="C178">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="D178">
+        <v>5832</v>
+      </c>
+      <c r="E178">
+        <v>5114</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>3</v>
+      </c>
+      <c r="B179" t="s">
+        <v>11</v>
+      </c>
+      <c r="C179">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="D179">
+        <v>5832</v>
+      </c>
+      <c r="E179">
+        <v>3156</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>3</v>
+      </c>
+      <c r="B180" t="s">
+        <v>11</v>
+      </c>
+      <c r="C180">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="D180">
+        <v>5832</v>
+      </c>
+      <c r="E180">
+        <v>5654</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>3</v>
+      </c>
+      <c r="B181" t="s">
+        <v>11</v>
+      </c>
+      <c r="C181">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="D181">
+        <v>5832</v>
+      </c>
+      <c r="E181">
+        <v>5446</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>2</v>
+      </c>
+      <c r="B182" t="s">
+        <v>13</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="D182">
+        <v>5086</v>
+      </c>
+      <c r="E182">
+        <v>3158</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>2</v>
+      </c>
+      <c r="B183" t="s">
+        <v>13</v>
+      </c>
+      <c r="C183">
+        <f>C182+1</f>
+        <v>1</v>
+      </c>
+      <c r="D183">
+        <v>5086</v>
+      </c>
+      <c r="E183">
+        <v>3754</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>2</v>
+      </c>
+      <c r="B184" t="s">
+        <v>13</v>
+      </c>
+      <c r="C184">
+        <f t="shared" ref="C184:C221" si="6">C183+1</f>
+        <v>2</v>
+      </c>
+      <c r="D184">
+        <v>5086</v>
+      </c>
+      <c r="E184">
+        <v>4932</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>2</v>
+      </c>
+      <c r="B185" t="s">
+        <v>13</v>
+      </c>
+      <c r="C185">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="D185">
+        <v>5086</v>
+      </c>
+      <c r="E185">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>2</v>
+      </c>
+      <c r="B186" t="s">
+        <v>13</v>
+      </c>
+      <c r="C186">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="D186">
+        <v>5086</v>
+      </c>
+      <c r="E186">
+        <v>4710</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>2</v>
+      </c>
+      <c r="B187" t="s">
+        <v>13</v>
+      </c>
+      <c r="C187">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="D187">
+        <v>5086</v>
+      </c>
+      <c r="E187">
+        <v>4528</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>2</v>
+      </c>
+      <c r="B188" t="s">
+        <v>13</v>
+      </c>
+      <c r="C188">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="D188">
+        <v>5086</v>
+      </c>
+      <c r="E188">
+        <v>4894</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>2</v>
+      </c>
+      <c r="B189" t="s">
+        <v>13</v>
+      </c>
+      <c r="C189">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="D189">
+        <v>5086</v>
+      </c>
+      <c r="E189">
+        <v>4778</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>2</v>
+      </c>
+      <c r="B190" t="s">
+        <v>13</v>
+      </c>
+      <c r="C190">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="D190">
+        <v>5086</v>
+      </c>
+      <c r="E190">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>2</v>
+      </c>
+      <c r="B191" t="s">
+        <v>13</v>
+      </c>
+      <c r="C191">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="D191">
+        <v>5086</v>
+      </c>
+      <c r="E191">
+        <v>4612</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>2</v>
+      </c>
+      <c r="B192" t="s">
+        <v>13</v>
+      </c>
+      <c r="C192">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="D192">
+        <v>5086</v>
+      </c>
+      <c r="E192">
+        <v>4764</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>2</v>
+      </c>
+      <c r="B193" t="s">
+        <v>13</v>
+      </c>
+      <c r="C193">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="D193">
+        <v>5086</v>
+      </c>
+      <c r="E193">
+        <v>4336</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>2</v>
+      </c>
+      <c r="B194" t="s">
+        <v>13</v>
+      </c>
+      <c r="C194">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="D194">
+        <v>5086</v>
+      </c>
+      <c r="E194">
+        <v>4828</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>2</v>
+      </c>
+      <c r="B195" t="s">
+        <v>13</v>
+      </c>
+      <c r="C195">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="D195">
+        <v>5086</v>
+      </c>
+      <c r="E195">
+        <v>3902</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>2</v>
+      </c>
+      <c r="B196" t="s">
+        <v>13</v>
+      </c>
+      <c r="C196">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="D196">
+        <v>5086</v>
+      </c>
+      <c r="E196">
+        <v>4688</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>2</v>
+      </c>
+      <c r="B197" t="s">
+        <v>13</v>
+      </c>
+      <c r="C197">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="D197">
+        <v>5086</v>
+      </c>
+      <c r="E197">
+        <v>4520</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>2</v>
+      </c>
+      <c r="B198" t="s">
+        <v>13</v>
+      </c>
+      <c r="C198">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="D198">
+        <v>5086</v>
+      </c>
+      <c r="E198">
+        <v>3884</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>2</v>
+      </c>
+      <c r="B199" t="s">
+        <v>13</v>
+      </c>
+      <c r="C199">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="D199">
+        <v>5086</v>
+      </c>
+      <c r="E199">
+        <v>4016</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>2</v>
+      </c>
+      <c r="B200" t="s">
+        <v>13</v>
+      </c>
+      <c r="C200">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="D200">
+        <v>5086</v>
+      </c>
+      <c r="E200">
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>2</v>
+      </c>
+      <c r="B201" t="s">
+        <v>13</v>
+      </c>
+      <c r="C201">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="D201">
+        <v>5086</v>
+      </c>
+      <c r="E201">
+        <v>3278</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>2</v>
+      </c>
+      <c r="B202" t="s">
+        <v>13</v>
+      </c>
+      <c r="C202">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="D202">
+        <v>5086</v>
+      </c>
+      <c r="E202">
+        <v>4338</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>2</v>
+      </c>
+      <c r="B203" t="s">
+        <v>13</v>
+      </c>
+      <c r="C203">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="D203">
+        <v>5086</v>
+      </c>
+      <c r="E203">
+        <v>4302</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>2</v>
+      </c>
+      <c r="B204" t="s">
+        <v>13</v>
+      </c>
+      <c r="C204">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="D204">
+        <v>5086</v>
+      </c>
+      <c r="E204">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>2</v>
+      </c>
+      <c r="B205" t="s">
+        <v>13</v>
+      </c>
+      <c r="C205">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="D205">
+        <v>5086</v>
+      </c>
+      <c r="E205">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>2</v>
+      </c>
+      <c r="B206" t="s">
+        <v>13</v>
+      </c>
+      <c r="C206">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="D206">
+        <v>5086</v>
+      </c>
+      <c r="E206">
+        <v>4210</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>2</v>
+      </c>
+      <c r="B207" t="s">
+        <v>13</v>
+      </c>
+      <c r="C207">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="D207">
+        <v>5086</v>
+      </c>
+      <c r="E207">
+        <v>4568</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>2</v>
+      </c>
+      <c r="B208" t="s">
+        <v>13</v>
+      </c>
+      <c r="C208">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="D208">
+        <v>5086</v>
+      </c>
+      <c r="E208">
+        <v>4588</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>2</v>
+      </c>
+      <c r="B209" t="s">
+        <v>13</v>
+      </c>
+      <c r="C209">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="D209">
+        <v>5086</v>
+      </c>
+      <c r="E209">
+        <v>4662</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>2</v>
+      </c>
+      <c r="B210" t="s">
+        <v>13</v>
+      </c>
+      <c r="C210">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="D210">
+        <v>5086</v>
+      </c>
+      <c r="E210">
+        <v>4256</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>2</v>
+      </c>
+      <c r="B211" t="s">
+        <v>13</v>
+      </c>
+      <c r="C211">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="D211">
+        <v>5086</v>
+      </c>
+      <c r="E211">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>1</v>
+      </c>
+      <c r="B212" t="s">
+        <v>14</v>
+      </c>
+      <c r="C212">
+        <v>0</v>
+      </c>
+      <c r="D212">
+        <v>6527</v>
+      </c>
+      <c r="E212">
+        <v>3687</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>1</v>
+      </c>
+      <c r="B213" t="s">
+        <v>14</v>
+      </c>
+      <c r="C213">
+        <f>C212+1</f>
+        <v>1</v>
+      </c>
+      <c r="D213">
+        <v>6527</v>
+      </c>
+      <c r="E213">
+        <v>4501</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>1</v>
+      </c>
+      <c r="B214" t="s">
+        <v>14</v>
+      </c>
+      <c r="C214">
+        <f t="shared" ref="C214:C241" si="7">C213+1</f>
+        <v>2</v>
+      </c>
+      <c r="D214">
+        <v>6527</v>
+      </c>
+      <c r="E214">
+        <v>5621</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>1</v>
+      </c>
+      <c r="B215" t="s">
+        <v>14</v>
+      </c>
+      <c r="C215">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="D215">
+        <v>6527</v>
+      </c>
+      <c r="E215">
+        <v>4759</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>1</v>
+      </c>
+      <c r="B216" t="s">
+        <v>14</v>
+      </c>
+      <c r="C216">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="D216">
+        <v>6527</v>
+      </c>
+      <c r="E216">
+        <v>5565</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>1</v>
+      </c>
+      <c r="B217" t="s">
+        <v>14</v>
+      </c>
+      <c r="C217">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="D217">
+        <v>6527</v>
+      </c>
+      <c r="E217">
+        <v>4875</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>1</v>
+      </c>
+      <c r="B218" t="s">
+        <v>14</v>
+      </c>
+      <c r="C218">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="D218">
+        <v>6527</v>
+      </c>
+      <c r="E218">
+        <v>5793</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>1</v>
+      </c>
+      <c r="B219" t="s">
+        <v>14</v>
+      </c>
+      <c r="C219">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="D219">
+        <v>6527</v>
+      </c>
+      <c r="E219">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>1</v>
+      </c>
+      <c r="B220" t="s">
+        <v>14</v>
+      </c>
+      <c r="C220">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="D220">
+        <v>6527</v>
+      </c>
+      <c r="E220">
+        <v>4535</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>1</v>
+      </c>
+      <c r="B221" t="s">
+        <v>14</v>
+      </c>
+      <c r="C221">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="D221">
+        <v>6527</v>
+      </c>
+      <c r="E221">
+        <v>5695</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>1</v>
+      </c>
+      <c r="B222" t="s">
+        <v>14</v>
+      </c>
+      <c r="C222">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="D222">
+        <v>6527</v>
+      </c>
+      <c r="E222">
+        <v>5985</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>1</v>
+      </c>
+      <c r="B223" t="s">
+        <v>14</v>
+      </c>
+      <c r="C223">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="D223">
+        <v>6527</v>
+      </c>
+      <c r="E223">
+        <v>5405</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>1</v>
+      </c>
+      <c r="B224" t="s">
+        <v>14</v>
+      </c>
+      <c r="C224">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="D224">
+        <v>6527</v>
+      </c>
+      <c r="E224">
+        <v>6089</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>1</v>
+      </c>
+      <c r="B225" t="s">
+        <v>14</v>
+      </c>
+      <c r="C225">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="D225">
+        <v>6527</v>
+      </c>
+      <c r="E225">
+        <v>3963</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>1</v>
+      </c>
+      <c r="B226" t="s">
+        <v>14</v>
+      </c>
+      <c r="C226">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="D226">
+        <v>6527</v>
+      </c>
+      <c r="E226">
+        <v>6279</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>1</v>
+      </c>
+      <c r="B227" t="s">
+        <v>14</v>
+      </c>
+      <c r="C227">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="D227">
+        <v>6527</v>
+      </c>
+      <c r="E227">
+        <v>5749</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>1</v>
+      </c>
+      <c r="B228" t="s">
+        <v>14</v>
+      </c>
+      <c r="C228">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="D228">
+        <v>6527</v>
+      </c>
+      <c r="E228">
+        <v>5517</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>1</v>
+      </c>
+      <c r="B229" t="s">
+        <v>14</v>
+      </c>
+      <c r="C229">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="D229">
+        <v>6527</v>
+      </c>
+      <c r="E229">
+        <v>5213</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>1</v>
+      </c>
+      <c r="B230" t="s">
+        <v>14</v>
+      </c>
+      <c r="C230">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="D230">
+        <v>6527</v>
+      </c>
+      <c r="E230">
+        <v>6057</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>1</v>
+      </c>
+      <c r="B231" t="s">
+        <v>14</v>
+      </c>
+      <c r="C231">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="D231">
+        <v>6527</v>
+      </c>
+      <c r="E231">
+        <v>3929</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>1</v>
+      </c>
+      <c r="B232" t="s">
+        <v>14</v>
+      </c>
+      <c r="C232">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="D232">
+        <v>6527</v>
+      </c>
+      <c r="E232">
+        <v>4239</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>1</v>
+      </c>
+      <c r="B233" t="s">
+        <v>14</v>
+      </c>
+      <c r="C233">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="D233">
+        <v>6527</v>
+      </c>
+      <c r="E233">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>1</v>
+      </c>
+      <c r="B234" t="s">
+        <v>14</v>
+      </c>
+      <c r="C234">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="D234">
+        <v>6527</v>
+      </c>
+      <c r="E234">
+        <v>4597</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>1</v>
+      </c>
+      <c r="B235" t="s">
+        <v>14</v>
+      </c>
+      <c r="C235">
+        <f t="shared" si="7"/>
+        <v>23</v>
+      </c>
+      <c r="D235">
+        <v>6527</v>
+      </c>
+      <c r="E235">
+        <v>5669</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>1</v>
+      </c>
+      <c r="B236" t="s">
+        <v>14</v>
+      </c>
+      <c r="C236">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="D236">
+        <v>6527</v>
+      </c>
+      <c r="E236">
+        <v>6155</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>1</v>
+      </c>
+      <c r="B237" t="s">
+        <v>14</v>
+      </c>
+      <c r="C237">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="D237">
+        <v>6527</v>
+      </c>
+      <c r="E237">
+        <v>3681</v>
+      </c>
+      <c r="F237" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>1</v>
+      </c>
+      <c r="B238" t="s">
+        <v>14</v>
+      </c>
+      <c r="C238">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="D238">
+        <v>6527</v>
+      </c>
+      <c r="E238">
+        <v>5731</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>1</v>
+      </c>
+      <c r="B239" t="s">
+        <v>14</v>
+      </c>
+      <c r="C239">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="D239">
+        <v>6527</v>
+      </c>
+      <c r="E239">
+        <v>6151</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>1</v>
+      </c>
+      <c r="B240" t="s">
+        <v>14</v>
+      </c>
+      <c r="C240">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="D240">
+        <v>6527</v>
+      </c>
+      <c r="E240">
+        <v>4355</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>1</v>
+      </c>
+      <c r="B241" t="s">
+        <v>14</v>
+      </c>
+      <c r="C241">
+        <f t="shared" si="7"/>
+        <v>29</v>
+      </c>
+      <c r="D241">
+        <v>6527</v>
+      </c>
+      <c r="E241">
+        <v>4713</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>3</v>
+      </c>
+      <c r="B242" t="s">
+        <v>12</v>
+      </c>
+      <c r="C242">
+        <v>0</v>
+      </c>
+      <c r="D242">
+        <v>5262</v>
+      </c>
+      <c r="E242">
+        <v>3496</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>3</v>
+      </c>
+      <c r="B243" t="s">
+        <v>12</v>
+      </c>
+      <c r="C243">
+        <f>C242+1</f>
+        <v>1</v>
+      </c>
+      <c r="D243">
+        <v>5262</v>
+      </c>
+      <c r="E243">
+        <v>3818</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>3</v>
+      </c>
+      <c r="B244" t="s">
+        <v>12</v>
+      </c>
+      <c r="C244">
+        <f t="shared" ref="C244:C271" si="8">C243+1</f>
+        <v>2</v>
+      </c>
+      <c r="D244">
+        <v>5262</v>
+      </c>
+      <c r="E244">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>3</v>
+      </c>
+      <c r="B245" t="s">
+        <v>12</v>
+      </c>
+      <c r="C245">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="D245">
+        <v>5262</v>
+      </c>
+      <c r="E245">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>3</v>
+      </c>
+      <c r="B246" t="s">
+        <v>12</v>
+      </c>
+      <c r="C246">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="D246">
+        <v>5262</v>
+      </c>
+      <c r="E246">
+        <v>4692</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>3</v>
+      </c>
+      <c r="B247" t="s">
+        <v>12</v>
+      </c>
+      <c r="C247">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="D247">
+        <v>5262</v>
+      </c>
+      <c r="E247">
+        <v>4104</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>3</v>
+      </c>
+      <c r="B248" t="s">
+        <v>12</v>
+      </c>
+      <c r="C248">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="D248">
+        <v>5262</v>
+      </c>
+      <c r="E248">
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>3</v>
+      </c>
+      <c r="B249" t="s">
+        <v>12</v>
+      </c>
+      <c r="C249">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="D249">
+        <v>5262</v>
+      </c>
+      <c r="E249">
+        <v>4476</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>3</v>
+      </c>
+      <c r="B250" t="s">
+        <v>12</v>
+      </c>
+      <c r="C250">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="D250">
+        <v>5262</v>
+      </c>
+      <c r="E250">
+        <v>4670</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>3</v>
+      </c>
+      <c r="B251" t="s">
+        <v>12</v>
+      </c>
+      <c r="C251">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="D251">
+        <v>5262</v>
+      </c>
+      <c r="E251">
+        <v>3326</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>3</v>
+      </c>
+      <c r="B252" t="s">
+        <v>12</v>
+      </c>
+      <c r="C252">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="D252">
+        <v>5262</v>
+      </c>
+      <c r="E252">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>3</v>
+      </c>
+      <c r="B253" t="s">
+        <v>12</v>
+      </c>
+      <c r="C253">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="D253">
+        <v>5262</v>
+      </c>
+      <c r="E253">
+        <v>3494</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>3</v>
+      </c>
+      <c r="B254" t="s">
+        <v>12</v>
+      </c>
+      <c r="C254">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="D254">
+        <v>5262</v>
+      </c>
+      <c r="E254">
+        <v>2768</v>
+      </c>
+      <c r="F254" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>3</v>
+      </c>
+      <c r="B255" t="s">
+        <v>12</v>
+      </c>
+      <c r="C255">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="D255">
+        <v>5262</v>
+      </c>
+      <c r="E255">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>3</v>
+      </c>
+      <c r="B256" t="s">
+        <v>12</v>
+      </c>
+      <c r="C256">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="D256">
+        <v>5262</v>
+      </c>
+      <c r="E256">
+        <v>3704</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>3</v>
+      </c>
+      <c r="B257" t="s">
+        <v>12</v>
+      </c>
+      <c r="C257">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="D257">
+        <v>5262</v>
+      </c>
+      <c r="E257">
+        <v>4202</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>3</v>
+      </c>
+      <c r="B258" t="s">
+        <v>12</v>
+      </c>
+      <c r="C258">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="D258">
+        <v>5262</v>
+      </c>
+      <c r="E258">
+        <v>4636</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>3</v>
+      </c>
+      <c r="B259" t="s">
+        <v>12</v>
+      </c>
+      <c r="C259">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="D259">
+        <v>5262</v>
+      </c>
+      <c r="E259">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>3</v>
+      </c>
+      <c r="B260" t="s">
+        <v>12</v>
+      </c>
+      <c r="C260">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="D260">
+        <v>5262</v>
+      </c>
+      <c r="E260">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>3</v>
+      </c>
+      <c r="B261" t="s">
+        <v>12</v>
+      </c>
+      <c r="C261">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="D261">
+        <v>5262</v>
+      </c>
+      <c r="E261">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>3</v>
+      </c>
+      <c r="B262" t="s">
+        <v>12</v>
+      </c>
+      <c r="C262">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="D262">
+        <v>5262</v>
+      </c>
+      <c r="E262">
+        <v>4916</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>3</v>
+      </c>
+      <c r="B263" t="s">
+        <v>12</v>
+      </c>
+      <c r="C263">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="D263">
+        <v>5262</v>
+      </c>
+      <c r="E263">
+        <v>4730</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>3</v>
+      </c>
+      <c r="B264" t="s">
+        <v>12</v>
+      </c>
+      <c r="C264">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="D264">
+        <v>5262</v>
+      </c>
+      <c r="E264">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>3</v>
+      </c>
+      <c r="B265" t="s">
+        <v>12</v>
+      </c>
+      <c r="C265">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="D265">
+        <v>5262</v>
+      </c>
+      <c r="E265">
+        <v>3670</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>3</v>
+      </c>
+      <c r="B266" t="s">
+        <v>12</v>
+      </c>
+      <c r="C266">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="D266">
+        <v>5262</v>
+      </c>
+      <c r="E266">
+        <v>4118</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>3</v>
+      </c>
+      <c r="B267" t="s">
+        <v>12</v>
+      </c>
+      <c r="C267">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="D267">
+        <v>5262</v>
+      </c>
+      <c r="E267">
+        <v>4138</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>3</v>
+      </c>
+      <c r="B268" t="s">
+        <v>12</v>
+      </c>
+      <c r="C268">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="D268">
+        <v>5262</v>
+      </c>
+      <c r="E268">
+        <v>4678</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>3</v>
+      </c>
+      <c r="B269" t="s">
+        <v>12</v>
+      </c>
+      <c r="C269">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="D269">
+        <v>5262</v>
+      </c>
+      <c r="E269">
+        <v>4098</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>3</v>
+      </c>
+      <c r="B270" t="s">
+        <v>12</v>
+      </c>
+      <c r="C270">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="D270">
+        <v>5262</v>
+      </c>
+      <c r="E270">
+        <v>3470</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>3</v>
+      </c>
+      <c r="B271" t="s">
+        <v>12</v>
+      </c>
+      <c r="C271">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+      <c r="D271">
+        <v>5262</v>
+      </c>
+      <c r="E271">
+        <v>2812</v>
       </c>
     </row>
   </sheetData>
